--- a/test.xlsx
+++ b/test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="41">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -284,47 +284,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,10 +466,10 @@
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1:T1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,7 +488,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,275 +550,563 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>921</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>925</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>929</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>930</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>1009</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>1011</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="K7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>1674</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>1675</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>1676</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T10"/>
